--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.98463981690943</v>
+        <v>61.48446487606174</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.75943348103395</v>
+        <v>84.12575734654816</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.10169105759921</v>
+        <v>76.09691313665549</v>
       </c>
       <c r="AD2" t="n">
-        <v>50984.63981690943</v>
+        <v>61484.46487606173</v>
       </c>
       <c r="AE2" t="n">
-        <v>69759.43348103395</v>
+        <v>84125.75734654815</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.686358716404185e-06</v>
+        <v>1.299417077800094e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>63101.69105759921</v>
+        <v>76096.91313665549</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.1024063100677</v>
+        <v>61.60223136922</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.92056679246402</v>
+        <v>84.2868906579782</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.24744603193845</v>
+        <v>76.24266811099474</v>
       </c>
       <c r="AD3" t="n">
-        <v>51102.4063100677</v>
+        <v>61602.23136922</v>
       </c>
       <c r="AE3" t="n">
-        <v>69920.56679246401</v>
+        <v>84286.89065797821</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.680570022320772e-06</v>
+        <v>1.298438470343992e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>63247.44603193845</v>
+        <v>76242.66811099474</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.13566186164327</v>
+        <v>70.23145669479165</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.59782438837537</v>
+        <v>96.09377744297267</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.050944306415</v>
+        <v>86.92272219230279</v>
       </c>
       <c r="AD2" t="n">
-        <v>50135.66186164327</v>
+        <v>70231.45669479165</v>
       </c>
       <c r="AE2" t="n">
-        <v>68597.82438837537</v>
+        <v>96093.77744297267</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.666888623329962e-06</v>
+        <v>1.327744877325727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>62050.944306415</v>
+        <v>86922.72219230278</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.00207711210517</v>
+        <v>81.23280833753564</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.20222136022835</v>
+        <v>111.146312105948</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.97520233920623</v>
+        <v>100.5386640734136</v>
       </c>
       <c r="AD2" t="n">
-        <v>63002.07711210517</v>
+        <v>81232.80833753565</v>
       </c>
       <c r="AE2" t="n">
-        <v>86202.22136022834</v>
+        <v>111146.312105948</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.505451703591445e-06</v>
+        <v>1.230971452952263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.595920138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>77975.20233920624</v>
+        <v>100538.6640734136</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.50128509367386</v>
+        <v>69.99800538119722</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.78052739345495</v>
+        <v>95.77435905656789</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.88007004224296</v>
+        <v>86.63378864838984</v>
       </c>
       <c r="AD2" t="n">
-        <v>60501.28509367385</v>
+        <v>69998.00538119722</v>
       </c>
       <c r="AE2" t="n">
-        <v>82780.52739345495</v>
+        <v>95774.35905656789</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.168522352661338e-06</v>
+        <v>1.305949090428357e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.120659722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>74880.07004224297</v>
+        <v>86633.78864838983</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.63761059055733</v>
+        <v>94.15765917867117</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.8589598227185</v>
+        <v>128.8306632309568</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.85136786773917</v>
+        <v>116.5352455471999</v>
       </c>
       <c r="AD2" t="n">
-        <v>76637.61059055733</v>
+        <v>94157.65917867117</v>
       </c>
       <c r="AE2" t="n">
-        <v>104858.9598227185</v>
+        <v>128830.6632309569</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.735283463921295e-06</v>
+        <v>1.123930767827144e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>94851.36786773917</v>
+        <v>116535.2455471999</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.46404835250954</v>
+        <v>70.73012047796981</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.04713727256787</v>
+        <v>96.77607123061017</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.45737539955491</v>
+        <v>87.53989881845371</v>
       </c>
       <c r="AD2" t="n">
-        <v>50464.04835250953</v>
+        <v>70730.1204779698</v>
       </c>
       <c r="AE2" t="n">
-        <v>69047.13727256787</v>
+        <v>96776.07123061018</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.656118479555411e-06</v>
+        <v>1.31722079648555e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.712673611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>62457.37539955491</v>
+        <v>87539.8988184537</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.6361156054778</v>
+        <v>107.4032011996697</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.6981349026071</v>
+        <v>146.9537981761504</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.0378216768479</v>
+        <v>132.9287339292096</v>
       </c>
       <c r="AD2" t="n">
-        <v>81636.1156054778</v>
+        <v>107403.2011996697</v>
       </c>
       <c r="AE2" t="n">
-        <v>111698.1349026071</v>
+        <v>146953.7981761504</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.158020548031533e-06</v>
+        <v>1.034007941435905e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.819878472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>101037.8216768479</v>
+        <v>132928.7339292096</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.08998991171128</v>
+        <v>69.63315254576929</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.53533401157424</v>
+        <v>95.27515131096455</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.99441792346995</v>
+        <v>86.18222458938425</v>
       </c>
       <c r="AD2" t="n">
-        <v>50089.98991171128</v>
+        <v>69633.15254576929</v>
       </c>
       <c r="AE2" t="n">
-        <v>68535.33401157423</v>
+        <v>95275.15131096455</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.507586451431163e-06</v>
+        <v>1.329649347095932e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.877604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61994.41792346995</v>
+        <v>86182.22458938425</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.92170407796907</v>
+        <v>69.84074661104847</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.30507790960125</v>
+        <v>95.55919066948317</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.78613714070272</v>
+        <v>86.43915563017767</v>
       </c>
       <c r="AD2" t="n">
-        <v>49921.70407796907</v>
+        <v>69840.74661104847</v>
       </c>
       <c r="AE2" t="n">
-        <v>68305.07790960126</v>
+        <v>95559.19066948317</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.650106348686034e-06</v>
+        <v>1.334111747090882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.766927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61786.13714070272</v>
+        <v>86439.15563017767</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.8107428736578</v>
+        <v>71.40025266678462</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.5215000114855</v>
+        <v>97.69297565549179</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.88646562444269</v>
+        <v>88.36929517190836</v>
       </c>
       <c r="AD2" t="n">
-        <v>50810.7428736578</v>
+        <v>71400.25266678463</v>
       </c>
       <c r="AE2" t="n">
-        <v>69521.50001148551</v>
+        <v>97692.9756554918</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.683148521446665e-06</v>
+        <v>1.306084327519782e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.658420138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>62886.46562444269</v>
+        <v>88369.29517190836</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.97392534956208</v>
+        <v>69.58216121926698</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.0589705260917</v>
+        <v>95.20538272846557</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.22737754958921</v>
+        <v>86.11911462247814</v>
       </c>
       <c r="AD2" t="n">
-        <v>59973.92534956208</v>
+        <v>69582.16121926699</v>
       </c>
       <c r="AE2" t="n">
-        <v>82058.9705260917</v>
+        <v>95205.38272846557</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.343728630741443e-06</v>
+        <v>1.32424805407475e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>74227.3775495892</v>
+        <v>86119.11462247814</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.807385103923</v>
+        <v>80.14023390228304</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.56759104854272</v>
+        <v>109.6514035626539</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.49657885024932</v>
+        <v>99.18642750337371</v>
       </c>
       <c r="AD2" t="n">
-        <v>61807.38510392301</v>
+        <v>80140.23390228304</v>
       </c>
       <c r="AE2" t="n">
-        <v>84567.59104854273</v>
+        <v>109651.4035626539</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776239538218906e-06</v>
+        <v>1.264229700255788e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.396267361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>76496.57885024932</v>
+        <v>99186.42750337371</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.80797244270963</v>
+        <v>82.7416177356948</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.67312702203925</v>
+        <v>113.2107316884811</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.21028823259259</v>
+        <v>102.4060583484215</v>
       </c>
       <c r="AD2" t="n">
-        <v>64807.97244270963</v>
+        <v>82741.6177356948</v>
       </c>
       <c r="AE2" t="n">
-        <v>88673.12702203925</v>
+        <v>113210.7316884811</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.169534674625238e-06</v>
+        <v>1.186424396790825e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.858506944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>80210.28823259259</v>
+        <v>102406.0583484215</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.76104816848581</v>
+        <v>124.9672484187934</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4974672508929</v>
+        <v>170.985702452419</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4703405519027</v>
+        <v>154.6670669903483</v>
       </c>
       <c r="AD2" t="n">
-        <v>99761.04816848581</v>
+        <v>124967.2484187934</v>
       </c>
       <c r="AE2" t="n">
-        <v>136497.4672508929</v>
+        <v>170985.702452419</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.368211815285471e-06</v>
+        <v>9.009870725776525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>123470.3405519027</v>
+        <v>154667.0669903483</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.93659648898789</v>
+        <v>69.67170757479079</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.325454363364</v>
+        <v>95.32790400259957</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.80456889431689</v>
+        <v>86.2299426381685</v>
       </c>
       <c r="AD2" t="n">
-        <v>49936.59648898789</v>
+        <v>69671.70757479078</v>
       </c>
       <c r="AE2" t="n">
-        <v>68325.454363364</v>
+        <v>95327.90400259956</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.593631440864756e-06</v>
+        <v>1.334171088972934e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.814670138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>61804.56889431689</v>
+        <v>86229.94263816849</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.72752914466939</v>
+        <v>71.15800183492861</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.40764331635299</v>
+        <v>97.36151737999413</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.7834752524947</v>
+        <v>88.06947080901946</v>
       </c>
       <c r="AD2" t="n">
-        <v>50727.52914466939</v>
+        <v>71158.00183492861</v>
       </c>
       <c r="AE2" t="n">
-        <v>69407.64331635299</v>
+        <v>97361.51737999413</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.65320416803935e-06</v>
+        <v>1.308612623594138e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.690972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>62783.4752524947</v>
+        <v>88069.47080901946</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.2327470390336</v>
+        <v>177.6992095600015</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.713851715318</v>
+        <v>243.1358980557225</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.7488806043069</v>
+        <v>219.931349188731</v>
       </c>
       <c r="AD2" t="n">
-        <v>145232.7470390336</v>
+        <v>177699.2095600016</v>
       </c>
       <c r="AE2" t="n">
-        <v>198713.851715318</v>
+        <v>243135.8980557225</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.289434876468995e-06</v>
+        <v>7.050774022600619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.044704861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>179748.8806043069</v>
+        <v>219931.349188731</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.78839838516301</v>
+        <v>70.16673186879333</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.1733684654147</v>
+        <v>96.00521808058404</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.2354189136509</v>
+        <v>86.84261481116663</v>
       </c>
       <c r="AD2" t="n">
-        <v>60788.39838516301</v>
+        <v>70166.73186879333</v>
       </c>
       <c r="AE2" t="n">
-        <v>83173.36846541469</v>
+        <v>96005.21808058405</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.024554072245267e-06</v>
+        <v>1.294226696730216e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75235.41891365091</v>
+        <v>86842.61481116663</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.07728799625051</v>
+        <v>69.41947562348338</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.51795469047187</v>
+        <v>94.9827891191326</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.97869726038154</v>
+        <v>85.91776503480773</v>
       </c>
       <c r="AD2" t="n">
-        <v>50077.28799625051</v>
+        <v>69419.47562348338</v>
       </c>
       <c r="AE2" t="n">
-        <v>68517.95469047187</v>
+        <v>94982.78911913261</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.444656070824044e-06</v>
+        <v>1.329933477232764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.934027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>61978.69726038154</v>
+        <v>85917.76503480773</v>
       </c>
     </row>
   </sheetData>
